--- a/P/Work.WebApp/_Code/Excel/超度法會(個別祖先)名冊.xlsx
+++ b/P/Work.WebApp/_Code/Excel/超度法會(個別祖先)名冊.xlsx
@@ -22,10 +22,6 @@
   </si>
   <si>
     <t>申請人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居住地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -64,6 +60,10 @@
       </rPr>
       <t xml:space="preserve">    農曆七月超度法會(薦拔祖先-個別祖先) 名冊</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌位供奉地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +542,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -574,16 +574,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
